--- a/Functions.xlsx
+++ b/Functions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel Quantam - Danpak\Excel-Quantam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E56E95-F4AF-4437-B1F8-04AFF40D552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEB64B6-6330-4F83-8655-FA4B266535D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69078ACA-04A8-4C19-8AB2-5A6BE71CED6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{69078ACA-04A8-4C19-8AB2-5A6BE71CED6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
+    <sheet name="TEXT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>TEXT Fuctions</t>
   </si>
@@ -96,6 +119,39 @@
   </si>
   <si>
     <t>Workdays</t>
+  </si>
+  <si>
+    <t>Pakistan Zindabad</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>PROPER</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>CLEAN</t>
+  </si>
+  <si>
+    <t>SUBSTITUTE</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
   </si>
 </sst>
 </file>
@@ -144,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -152,6 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,9 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D02AF1-C96A-4B85-9D8D-728F26074365}">
   <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +602,7 @@
       </c>
       <c r="F3" s="2">
         <f ca="1">NOW()</f>
-        <v>45779.638586342589</v>
+        <v>45779.654439583333</v>
       </c>
       <c r="H3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(F3)</f>
@@ -686,7 +743,7 @@
       </c>
       <c r="L10" s="3">
         <f ca="1">RANDBETWEEN("1jan2000",TODAY()-RANDBETWEEN(15,80))</f>
-        <v>40670</v>
+        <v>37992</v>
       </c>
       <c r="N10" s="6">
         <v>40404</v>
@@ -705,7 +762,7 @@
       </c>
       <c r="L11" s="3">
         <f ca="1">L10 + RANDBETWEEN(100,500)</f>
-        <v>40775</v>
+        <v>38403</v>
       </c>
       <c r="N11" s="6">
         <v>40769</v>
@@ -741,7 +798,7 @@
       </c>
       <c r="K13">
         <f ca="1">NETWORKDAYS(L10,L11,N:N)</f>
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="N13" s="6">
         <v>41500</v>
@@ -800,7 +857,7 @@
       </c>
       <c r="L16" s="3">
         <f ca="1">L10</f>
-        <v>40670</v>
+        <v>37992</v>
       </c>
       <c r="N16" s="6">
         <v>42596</v>
@@ -858,7 +915,7 @@
       </c>
       <c r="L19" s="3">
         <f ca="1">WORKDAY(L16,L17,N:N)</f>
-        <v>41372</v>
+        <v>38692</v>
       </c>
       <c r="N19" s="6">
         <v>43691</v>
@@ -942,4 +999,194 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F507B6D-E741-4AFF-BDCC-80482D4587C2}">
+  <dimension ref="B1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="str">
+        <f>LOWER(B1)</f>
+        <v>pakistan zindabad</v>
+      </c>
+      <c r="G3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D3)</f>
+        <v>=LOWER(B1)</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="str">
+        <f>UPPER(B1)</f>
+        <v>PAKISTAN ZINDABAD</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G14" ca="1" si="0">_xlfn.FORMULATEXT(D4)</f>
+        <v>=UPPER(B1)</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="str">
+        <f>PROPER(B1)</f>
+        <v>Pakistan Zindabad</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=PROPER(B1)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <f>LEN(B1)</f>
+        <v>17</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LEN(B1)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="str">
+        <f>TRIM(B1)</f>
+        <v>Pakistan Zindabad</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TRIM(B1)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CLEAN(B1)</f>
+        <v>Pakistan Zindabad</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=CLEAN(B1)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SUBSTITUTE(B1, " ", "*")</f>
+        <v>Pakistan*Zindabad</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SUBSTITUTE(B1, " ", "*")</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <f>SEARCH(" ",B1)</f>
+        <v>9</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=SEARCH(" ",B1)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="str">
+        <f>LEFT(B1,7)</f>
+        <v>Pakista</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LEFT(B1,7)</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="str">
+        <f>RIGHT(B1,5)</f>
+        <v>dabad</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=RIGHT(B1,5)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f>LEFT(B1,SEARCH(" ",B1)-1)</f>
+        <v>Pakistan</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=LEFT(B1,SEARCH(" ",B1)-1)</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f>RIGHT(B1, LEN(B1) - SEARCH(" ", B1))</f>
+        <v>Zindabad</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=RIGHT(B1, LEN(B1) - SEARCH(" ", B1))</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C16" t="str" cm="1">
+        <f t="array" ref="C16:D16">_xlfn.TEXTSPLIT(B1, " ")</f>
+        <v>Pakistan</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Zindabad</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="str">
+        <f>_xlfn.TEXTBEFORE(B1, " ")</f>
+        <v>Pakistan</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>